--- a/results/dec_trees/Filetree1.xlsx
+++ b/results/dec_trees/Filetree1.xlsx
@@ -245,13 +245,13 @@
     <t>[2.]</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>correct</t>
-  </si>
-  <si>
-    <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Accuracy</t>
@@ -2267,7 +2267,7 @@
         <v>75</v>
       </c>
       <c r="B3">
-        <v>0.9019607843137255</v>
+        <v>0.8833094213295075</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>76</v>
       </c>
       <c r="B4">
-        <v>0.8833094213295075</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2761,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2772,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.7058823529411765</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.6862745098039216</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0.7450980392156863</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2802,7 +2802,7 @@
         <v>68</v>
       </c>
       <c r="D8">
-        <v>0.7058823529411765</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.7647058823529411</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.7254901960784313</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2857,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3005,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>0.6274509803921569</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3076,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3087,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.7058823529411765</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.6862745098039216</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3109,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0.7450980392156863</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3117,7 +3117,7 @@
         <v>68</v>
       </c>
       <c r="D8">
-        <v>0.7058823529411765</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3139,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.7647058823529411</v>
+        <v>0.7254901960784313</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3161,7 +3161,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.7254901960784313</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3320,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>0.6274509803921569</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:4">
